--- a/hardware/hail/rev_a/hail_bom.xlsx
+++ b/hardware/hail/rev_a/hail_bom.xlsx
@@ -798,8 +798,8 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/hardware/hail/rev_a/hail_bom.xlsx
+++ b/hardware/hail/rev_a/hail_bom.xlsx
@@ -510,9 +510,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,18 +801,19 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125"/>
-    <col min="2" max="3" width="31.28515625"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625"/>
     <col min="4" max="4" width="33.7109375"/>
-    <col min="5" max="5" width="60.42578125"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
     <col min="6" max="6" width="55.42578125"/>
-    <col min="7" max="7" width="25.85546875"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.28515625"/>
     <col min="9" max="9" width="17.85546875"/>
     <col min="10" max="1025" width="11.5703125"/>
@@ -1057,7 +1061,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>13</v>
       </c>
@@ -1070,7 +1074,7 @@
       <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F11" t="s">
@@ -1588,7 +1592,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup scale="43" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup scale="51" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
